--- a/biology/Zoologie/Dactylioceras/Dactylioceras.xlsx
+++ b/biology/Zoologie/Dactylioceras/Dactylioceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylioceras (du grec ancien δακτύλιοκερας « doigt cornu ») est un genre éteint d'ammonites (mollusques céphalopodes) du Jurassique inférieur qui existait au Toarcien inférieur et moyen il y a environ 180 Ma (millions d'années).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille présente un enroulement dit « serpenticône » avec de nombreux tours très peu recouvrants, présente des côtes et parfois des tubercules.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylioceras était un genre très répandu, dont on retrouve les fossiles sur plusieurs continents. Le genre est fréquent en Europe : Allemagne (Jura souabe), en Angleterre (Yorkshire), au Luxembourg, en Espagne, en France dans la Sarthe, le Calvados, la Bourgogne, le Poitou…
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylioceras commune Sowerby, 1815 (la plus courante des Dactylioceras comme son nom l'indique)
 D. alpestre
@@ -625,7 +643,9 @@
           <t>Biostratigraphie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Dactylioceras ont un rôle important dans la biozonation du Toarcien inférieur et moyen.
 </t>
